--- a/grade_book_solution.xlsx
+++ b/grade_book_solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/04-Stu_GradeBook/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krueg\git\test\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C296F04-A0EB-7249-95A4-7D31A06CBF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500E2525-9516-4453-9F99-E423F5014591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="1580" windowWidth="20760" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24195" yWindow="0" windowWidth="17970" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF()" sheetId="1" r:id="rId1"/>
@@ -187,12 +187,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -217,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,6 +235,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -575,21 +588,22 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="10" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="7" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -611,11 +625,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>60</v>
       </c>
       <c r="C2" s="4">
@@ -640,11 +654,11 @@
         <v>C</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>93</v>
       </c>
       <c r="C3" s="4">
@@ -669,11 +683,11 @@
         <v>B</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>60</v>
       </c>
       <c r="C4" s="4">
@@ -698,11 +712,11 @@
         <v>C</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>63</v>
       </c>
       <c r="C5" s="4">
@@ -727,11 +741,11 @@
         <v>D</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>59</v>
       </c>
       <c r="C6" s="4">
@@ -756,11 +770,11 @@
         <v>D</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>43</v>
       </c>
       <c r="C7" s="4">
@@ -785,11 +799,11 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>81</v>
       </c>
       <c r="C8" s="4">
@@ -814,11 +828,11 @@
         <v>C</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>100</v>
       </c>
       <c r="C9" s="4">
@@ -843,11 +857,11 @@
         <v>A</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>89</v>
       </c>
       <c r="C10" s="4">
@@ -872,11 +886,11 @@
         <v>B</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>55</v>
       </c>
       <c r="C11" s="4">
@@ -901,11 +915,11 @@
         <v>D</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>58</v>
       </c>
       <c r="C12" s="4">
@@ -930,11 +944,11 @@
         <v>C</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>53</v>
       </c>
       <c r="C13" s="4">
@@ -959,11 +973,11 @@
         <v>C</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>89</v>
       </c>
       <c r="C14" s="4">
@@ -988,11 +1002,11 @@
         <v>B</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>46</v>
       </c>
       <c r="C15" s="4">
@@ -1017,11 +1031,11 @@
         <v>C</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="6">
         <v>99</v>
       </c>
       <c r="C16" s="4">
@@ -1046,11 +1060,11 @@
         <v>B</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="6">
         <v>96</v>
       </c>
       <c r="C17" s="4">
@@ -1075,11 +1089,11 @@
         <v>A</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="6">
         <v>44</v>
       </c>
       <c r="C18" s="4">
@@ -1104,11 +1118,11 @@
         <v>F</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <v>50</v>
       </c>
       <c r="C19" s="4">
@@ -1133,11 +1147,11 @@
         <v>C</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="6">
         <v>49</v>
       </c>
       <c r="C20" s="4">
@@ -1162,11 +1176,11 @@
         <v>D</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="6">
         <v>45</v>
       </c>
       <c r="C21" s="4">
@@ -1191,11 +1205,11 @@
         <v>D</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="6">
         <v>43</v>
       </c>
       <c r="C22" s="4">
@@ -1220,11 +1234,11 @@
         <v>F</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="6">
         <v>54</v>
       </c>
       <c r="C23" s="4">
@@ -1249,11 +1263,11 @@
         <v>D</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="6">
         <v>96</v>
       </c>
       <c r="C24" s="4">
@@ -1278,11 +1292,11 @@
         <v>A</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="6">
         <v>59</v>
       </c>
       <c r="C25" s="4">
@@ -1321,12 +1335,12 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1381,7 +1395,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1410,7 +1424,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1453,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1468,7 +1482,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1511,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1526,7 +1540,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1555,7 +1569,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1584,7 +1598,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1613,7 +1627,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1642,7 +1656,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1671,7 +1685,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1700,7 +1714,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1729,7 +1743,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1758,7 +1772,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1787,7 +1801,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -1816,7 +1830,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -1845,7 +1859,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1874,7 +1888,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1903,7 +1917,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1932,7 +1946,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1961,7 +1975,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1990,7 +2004,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -2019,7 +2033,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
